--- a/HR_Data/LWP2_0007_lab_timing.xlsx
+++ b/HR_Data/LWP2_0007_lab_timing.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CDRIVE\CTPC\LIVEWELL WEARTECH WEARABILITY ALL\WEARTECH compiled participant timings with participant info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophie\Documents\MATLAB\HeartRate\HR_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="In Lab" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,12 +651,12 @@
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>13</v>
       </c>
@@ -666,11 +666,11 @@
       <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -700,14 +700,14 @@
       <c r="G3" s="5">
         <v>0.49560185185185185</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="K3">
+      <c r="J3">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -723,14 +723,14 @@
       <c r="G4" s="5">
         <v>0.49586805555555552</v>
       </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
       <c r="J4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -746,14 +746,14 @@
       <c r="G5" s="6">
         <v>0.49613425925925925</v>
       </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
       <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -772,14 +772,14 @@
       <c r="G6" s="5">
         <v>0.49641203703703707</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>59</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -798,17 +798,17 @@
       <c r="G7" s="5">
         <v>0.4966782407407408</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>60</v>
       </c>
+      <c r="K7" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="L7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -827,17 +827,17 @@
       <c r="G8" s="5">
         <v>0.49694444444444441</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>63</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
       </c>
       <c r="L8" t="s">
         <v>71</v>
       </c>
-      <c r="M8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -859,17 +859,17 @@
       <c r="G9" s="5">
         <v>0.49721064814814814</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
       </c>
       <c r="L9" t="s">
         <v>72</v>
       </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -888,17 +888,17 @@
       <c r="G10" s="5">
         <v>0.49748842592592596</v>
       </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -917,14 +917,14 @@
       <c r="G11" s="5">
         <v>0.49775462962962963</v>
       </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
       <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -947,7 +947,7 @@
         <v>0.49802083333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -966,11 +966,11 @@
       <c r="G13" s="5">
         <v>0.49829861111111112</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -989,14 +989,14 @@
       <c r="G14" s="5">
         <v>0.49856481481481479</v>
       </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
       <c r="J14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1018,14 +1018,14 @@
       <c r="G15" s="5">
         <v>0.49883101851851852</v>
       </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
       <c r="J15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>

--- a/HR_Data/LWP2_0007_lab_timing.xlsx
+++ b/HR_Data/LWP2_0007_lab_timing.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophie\Documents\MATLAB\HeartRate\HR_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRIVE\CTPC\LIVEWELL WEARTECH WEARABILITY ALL\WEARTECH compiled participant timings with participant info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="In Lab" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,14 +305,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -636,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,12 +650,12 @@
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>13</v>
       </c>
@@ -666,11 +665,11 @@
       <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -684,7 +683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -697,17 +696,17 @@
       <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.49560185185185185</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -720,17 +719,17 @@
       <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.49586805555555552</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>56</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -743,21 +742,21 @@
       <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.49613425925925925</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>58</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.48215277777777782</v>
       </c>
       <c r="C6" t="s">
@@ -769,21 +768,21 @@
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.49641203703703707</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>59</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>0.48472222222222222</v>
       </c>
       <c r="C7" t="s">
@@ -795,25 +794,25 @@
       <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.4966782407407408</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.49236111111111108</v>
+      <c r="B8" s="6">
+        <v>0.49239583333333337</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -824,25 +823,25 @@
       <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.49694444444444441</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
       </c>
       <c r="L8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.49305555555555558</v>
+      <c r="B9" s="6">
+        <v>0.4934837962962963</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -856,25 +855,25 @@
       <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.49721064814814814</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>72</v>
       </c>
       <c r="L9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.49513888888888885</v>
+      <c r="B10" s="6">
+        <v>0.49524305555555559</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -885,25 +884,25 @@
       <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.49748842592592596</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>65</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>69</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.50347222222222221</v>
+      <c r="B11" s="6">
+        <v>0.50356481481481474</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -914,22 +913,22 @@
       <c r="F11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0.49775462962962963</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.50416666666666665</v>
+      <c r="B12" s="6">
+        <v>0.50430555555555556</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -943,15 +942,15 @@
       <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0.49802083333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>0.50486111111111109</v>
       </c>
       <c r="C13" t="s">
@@ -963,18 +962,18 @@
       <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0.49829861111111112</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>0.51041666666666663</v>
       </c>
       <c r="C14" t="s">
@@ -986,22 +985,22 @@
       <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0.49856481481481479</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>62</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4">
-        <v>0.51111111111111118</v>
+      <c r="B15" s="6">
+        <v>0.51155092592592599</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1015,22 +1014,22 @@
       <c r="F15" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>0.49883101851851852</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>61</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4">
-        <v>0.51180555555555551</v>
+      <c r="B16" s="6">
+        <v>0.51226851851851851</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1041,7 +1040,7 @@
       <c r="F16" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.49909722222222225</v>
       </c>
     </row>
@@ -1049,8 +1048,8 @@
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
-        <v>0.51458333333333328</v>
+      <c r="B17" s="6">
+        <v>0.51482638888888888</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1061,7 +1060,7 @@
       <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>0.49936342592592592</v>
       </c>
     </row>
@@ -1069,8 +1068,8 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4">
-        <v>0.52222222222222225</v>
+      <c r="B18" s="6">
+        <v>0.52230324074074075</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1081,7 +1080,7 @@
       <c r="F18" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.49964120370370368</v>
       </c>
     </row>
@@ -1089,7 +1088,7 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>0.52281250000000001</v>
       </c>
       <c r="C19" t="s">
@@ -1104,7 +1103,7 @@
       <c r="F19" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>0.49990740740740741</v>
       </c>
     </row>
@@ -1112,8 +1111,8 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4">
-        <v>0.52361111111111114</v>
+      <c r="B20" s="6">
+        <v>0.52380787037037035</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1124,7 +1123,7 @@
       <c r="F20" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>0.50017361111111114</v>
       </c>
     </row>
@@ -1132,8 +1131,8 @@
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.52847222222222223</v>
+      <c r="B21" s="6">
+        <v>0.52810185185185188</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -1144,7 +1143,7 @@
       <c r="F21" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>0.50045138888888896</v>
       </c>
     </row>
@@ -1152,8 +1151,8 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.52916666666666667</v>
+      <c r="B22" s="6">
+        <v>0.52942129629629631</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -1164,7 +1163,7 @@
       <c r="F22" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>0.50071759259259252</v>
       </c>
       <c r="H22" t="s">
@@ -1175,8 +1174,8 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.52986111111111112</v>
+      <c r="B23" s="6">
+        <v>0.53003472222222225</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -1190,7 +1189,7 @@
       <c r="F23" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>0.5009837962962963</v>
       </c>
     </row>
@@ -1198,8 +1197,8 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="4">
-        <v>0.53125</v>
+      <c r="B24" s="6">
+        <v>0.53064814814814809</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -1210,7 +1209,7 @@
       <c r="F24" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>0.50126157407407412</v>
       </c>
     </row>
@@ -1218,7 +1217,7 @@
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>0.53240740740740744</v>
       </c>
       <c r="E25">
@@ -1227,7 +1226,7 @@
       <c r="F25" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>0.50152777777777779</v>
       </c>
     </row>
@@ -1238,7 +1237,7 @@
       <c r="F26" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>0.50179398148148147</v>
       </c>
     </row>
@@ -1252,7 +1251,7 @@
       <c r="F27" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>0.50207175925925929</v>
       </c>
     </row>
@@ -1263,7 +1262,7 @@
       <c r="F28" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>0.50233796296296296</v>
       </c>
     </row>
@@ -1274,7 +1273,7 @@
       <c r="F29" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>0.50260416666666663</v>
       </c>
     </row>
@@ -1285,12 +1284,12 @@
       <c r="F30" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>0.50287037037037041</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="8"/>
+      <c r="F31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HR_Data/LWP2_0007_lab_timing.xlsx
+++ b/HR_Data/LWP2_0007_lab_timing.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRIVE\CTPC\LIVEWELL WEARTECH WEARABILITY ALL\WEARTECH compiled participant timings with participant info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophie\Documents\MATLAB\HeartRate\HR_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="In Lab" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>Event</t>
   </si>
@@ -250,12 +250,15 @@
   </si>
   <si>
     <t>A004CD</t>
+  </si>
+  <si>
+    <t>Task/Event number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -321,6 +324,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,661 +639,720 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="2" max="3" width="28.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.49560185185185185</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>55</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.49586805555555552</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>56</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>42661</v>
       </c>
-      <c r="E5">
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>0.49613425925925925</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="6">
         <v>0.48215277777777782</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.49641203703703707</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="6">
         <v>0.48472222222222222</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.4966782407407408</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="6">
         <v>0.49239583333333337</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>0.49694444444444441</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="L8" t="s">
-        <v>71</v>
       </c>
       <c r="M8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="6">
         <v>0.4934837962962963</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>0.49721064814814814</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="L9" t="s">
-        <v>72</v>
       </c>
       <c r="M9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="6">
         <v>0.49524305555555559</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.49748842592592596</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>65</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>69</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6">
         <v>0.50356481481481474</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.49775462962962963</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>66</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="6">
         <v>0.50430555555555556</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.49802083333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6">
         <v>0.50486111111111109</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.49829861111111112</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="6">
         <v>0.51041666666666663</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.49856481481481479</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>62</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="6">
         <v>0.51155092592592599</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>0.49883101851851852</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>61</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="6">
         <v>0.51226851851851851</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.49909722222222225</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="6">
         <v>0.51482638888888888</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="9">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>15</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.49936342592592592</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6">
         <v>0.52230324074074075</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="9">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.49964120370370368</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="6">
         <v>0.52281250000000001</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="9">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>45</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.49990740740740741</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="6">
         <v>0.52380787037037035</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="9">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>0.50017361111111114</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="6">
         <v>0.52810185185185188</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="9">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>0.50045138888888896</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="6">
         <v>0.52942129629629631</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="9">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>0.50071759259259252</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="6">
         <v>0.53003472222222225</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="9">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>47</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>0.5009837962962963</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="6">
         <v>0.53064814814814809</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="9">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>22</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>0.50126157407407412</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="6">
         <v>0.53240740740740744</v>
       </c>
-      <c r="E25">
+      <c r="C25" s="9"/>
+      <c r="F25">
         <v>23</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>0.50152777777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26">
         <v>24</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>0.50179398148148147</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>25</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>0.50207175925925929</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28">
         <v>26</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>0.50233796296296296</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29">
         <v>27</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>0.50260416666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30">
         <v>28</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>0.50287037037037041</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="7"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
